--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1195.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1195.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8653852867925627</v>
+        <v>1.171482563018799</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.438419342041016</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.36396336555481</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.23833179473877</v>
       </c>
     </row>
   </sheetData>
